--- a/spotify_songs.xlsx
+++ b/spotify_songs.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1620"/>
+  <dimension ref="A1:E1621"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44174,6 +44174,33 @@
       <c r="E1620" t="inlineStr">
         <is>
           <t>['k-rock']</t>
+        </is>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" t="inlineStr">
+        <is>
+          <t>2025-02-28 01:24:30</t>
+        </is>
+      </c>
+      <c r="B1621" t="inlineStr">
+        <is>
+          <t>4g55sxYmQhk6NbcUBeZaSq</t>
+        </is>
+      </c>
+      <c r="C1621" t="inlineStr">
+        <is>
+          <t>26rG4m9iDFyFaF1wWJAGd5</t>
+        </is>
+      </c>
+      <c r="D1621" t="inlineStr">
+        <is>
+          <t>7LyaQJxH634U3S8Xu6DDrK</t>
+        </is>
+      </c>
+      <c r="E1621" t="inlineStr">
+        <is>
+          <t>['shibuya-kei', 'k-rock']</t>
         </is>
       </c>
     </row>
@@ -51897,7 +51924,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11">
@@ -51907,7 +51934,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12">

--- a/spotify_songs.xlsx
+++ b/spotify_songs.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2378"/>
+  <dimension ref="A1:E2380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64640,6 +64640,60 @@
       <c r="E2378" t="inlineStr">
         <is>
           <t>['k-rock']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2379">
+      <c r="A2379" t="inlineStr">
+        <is>
+          <t>2025-03-05 10:28:22</t>
+        </is>
+      </c>
+      <c r="B2379" t="inlineStr">
+        <is>
+          <t>6yM5OQN2ape9avB9GbbGOr</t>
+        </is>
+      </c>
+      <c r="C2379" t="inlineStr">
+        <is>
+          <t>6sXIpT0grN7fdjiEC04CVZ</t>
+        </is>
+      </c>
+      <c r="D2379" t="inlineStr">
+        <is>
+          <t>32g75UA59s48aBhDpSEtdO</t>
+        </is>
+      </c>
+      <c r="E2379" t="inlineStr">
+        <is>
+          <t>['shoegaze', 'chinese indie', 'taiwanese indie', 'dream pop', 'slowcore', 'chinese rock']</t>
+        </is>
+      </c>
+    </row>
+    <row r="2380">
+      <c r="A2380" t="inlineStr">
+        <is>
+          <t>2025-03-05 10:30:48</t>
+        </is>
+      </c>
+      <c r="B2380" t="inlineStr">
+        <is>
+          <t>6yM5OQN2ape9avB9GbbGOr</t>
+        </is>
+      </c>
+      <c r="C2380" t="inlineStr">
+        <is>
+          <t>6sXIpT0grN7fdjiEC04CVZ</t>
+        </is>
+      </c>
+      <c r="D2380" t="inlineStr">
+        <is>
+          <t>32g75UA59s48aBhDpSEtdO</t>
+        </is>
+      </c>
+      <c r="E2380" t="inlineStr">
+        <is>
+          <t>['shoegaze', 'chinese indie', 'taiwanese indie', 'dream pop', 'slowcore', 'chinese rock']</t>
         </is>
       </c>
     </row>
@@ -78495,7 +78549,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>907</v>
+        <v>909</v>
       </c>
     </row>
     <row r="3">
@@ -78505,7 +78559,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="4">
@@ -78515,7 +78569,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="5">
@@ -78525,7 +78579,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6">
@@ -78535,7 +78589,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7">
@@ -78915,7 +78969,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45">
